--- a/biology/Botanique/Otto_von_Münchhausen/Otto_von_Münchhausen.xlsx
+++ b/biology/Botanique/Otto_von_Münchhausen/Otto_von_Münchhausen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Otto_von_M%C3%BCnchhausen</t>
+          <t>Otto_von_Münchhausen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto von Münchhausen (né le 11 juin 1716 au château de Schwöbber à Hamelin et mort le 13 juillet 1774 à château de Calenberg (de) à Pattensen) est un botaniste allemand. Il est le chancelier de l'université de Göttingen et l'un des correspondants de Carl von Linné (1707-1778).
 Il est également le cousin du Baron de Münchhausen, dont les célèbres exploits « extraordinaires » inspirèrent la littérature allemande.
